--- a/Code/Results/Cases/Case_4_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008415247983542</v>
+        <v>1.040809482733422</v>
       </c>
       <c r="D2">
-        <v>1.024100207633146</v>
+        <v>1.04365670735475</v>
       </c>
       <c r="E2">
-        <v>1.016535055546902</v>
+        <v>1.044466440537053</v>
       </c>
       <c r="F2">
-        <v>1.012996228817278</v>
+        <v>1.049227967760451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044536476842786</v>
+        <v>1.040980793633511</v>
       </c>
       <c r="J2">
-        <v>1.030347141042142</v>
+        <v>1.045894083157781</v>
       </c>
       <c r="K2">
-        <v>1.035233696096174</v>
+        <v>1.046429957196339</v>
       </c>
       <c r="L2">
-        <v>1.027768738603003</v>
+        <v>1.047237410918254</v>
       </c>
       <c r="M2">
-        <v>1.024277426729757</v>
+        <v>1.05198561125979</v>
       </c>
       <c r="N2">
-        <v>1.013301824185161</v>
+        <v>1.019101556494424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014085859942589</v>
+        <v>1.041960692671536</v>
       </c>
       <c r="D3">
-        <v>1.028441171058853</v>
+        <v>1.044552503137746</v>
       </c>
       <c r="E3">
-        <v>1.021703681302404</v>
+        <v>1.045566763666612</v>
       </c>
       <c r="F3">
-        <v>1.019320443644248</v>
+        <v>1.050587390237693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046586766658745</v>
+        <v>1.041334458434953</v>
       </c>
       <c r="J3">
-        <v>1.034199759141415</v>
+        <v>1.046690057353124</v>
       </c>
       <c r="K3">
-        <v>1.038722628751575</v>
+        <v>1.047136610946707</v>
       </c>
       <c r="L3">
-        <v>1.03206619122028</v>
+        <v>1.048148223623396</v>
       </c>
       <c r="M3">
-        <v>1.029711942823381</v>
+        <v>1.053155824479918</v>
       </c>
       <c r="N3">
-        <v>1.014652315172745</v>
+        <v>1.019374910352988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017664191299316</v>
+        <v>1.042705259563075</v>
       </c>
       <c r="D4">
-        <v>1.031183061056206</v>
+        <v>1.045131795468497</v>
       </c>
       <c r="E4">
-        <v>1.024970483174323</v>
+        <v>1.046278753314007</v>
       </c>
       <c r="F4">
-        <v>1.023314565206179</v>
+        <v>1.051467046761273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047870661057729</v>
+        <v>1.041561935351102</v>
       </c>
       <c r="J4">
-        <v>1.036626589737226</v>
+        <v>1.047204229612658</v>
       </c>
       <c r="K4">
-        <v>1.040919155395515</v>
+        <v>1.04759288404518</v>
       </c>
       <c r="L4">
-        <v>1.034776595426066</v>
+        <v>1.048736999023224</v>
       </c>
       <c r="M4">
-        <v>1.033139517222082</v>
+        <v>1.053912516035989</v>
       </c>
       <c r="N4">
-        <v>1.015502178090841</v>
+        <v>1.019551279211235</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019147724890456</v>
+        <v>1.043018195191657</v>
       </c>
       <c r="D5">
-        <v>1.032320376556785</v>
+        <v>1.045375247505963</v>
       </c>
       <c r="E5">
-        <v>1.026326072809528</v>
+        <v>1.04657807665914</v>
       </c>
       <c r="F5">
-        <v>1.024971318700039</v>
+        <v>1.051836861748585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048400533869732</v>
+        <v>1.041657239700608</v>
       </c>
       <c r="J5">
-        <v>1.037631657362776</v>
+        <v>1.047420178904262</v>
       </c>
       <c r="K5">
-        <v>1.041828539642609</v>
+        <v>1.047784467679103</v>
       </c>
       <c r="L5">
-        <v>1.03589991471101</v>
+        <v>1.04898438215293</v>
       </c>
       <c r="M5">
-        <v>1.034560135309293</v>
+        <v>1.054230508322449</v>
       </c>
       <c r="N5">
-        <v>1.015853933909147</v>
+        <v>1.01962530295428</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019395624274999</v>
+        <v>1.043070733804669</v>
       </c>
       <c r="D6">
-        <v>1.032510453804033</v>
+        <v>1.045416119359757</v>
       </c>
       <c r="E6">
-        <v>1.026552662718447</v>
+        <v>1.046628334571213</v>
       </c>
       <c r="F6">
-        <v>1.025248213510774</v>
+        <v>1.051898955825761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048488932868948</v>
+        <v>1.04167322256315</v>
       </c>
       <c r="J6">
-        <v>1.037799540942913</v>
+        <v>1.047456425531355</v>
       </c>
       <c r="K6">
-        <v>1.04198042234839</v>
+        <v>1.047816621741263</v>
       </c>
       <c r="L6">
-        <v>1.036087598437342</v>
+        <v>1.049025910806302</v>
       </c>
       <c r="M6">
-        <v>1.034797497491055</v>
+        <v>1.054283893608947</v>
       </c>
       <c r="N6">
-        <v>1.0159126772525</v>
+        <v>1.019637724734773</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017684094824996</v>
+        <v>1.042709441337496</v>
       </c>
       <c r="D7">
-        <v>1.031198317484983</v>
+        <v>1.045135048809645</v>
       </c>
       <c r="E7">
-        <v>1.024988665429125</v>
+        <v>1.046282752874282</v>
       </c>
       <c r="F7">
-        <v>1.023336789341968</v>
+        <v>1.051471988214749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047877779585493</v>
+        <v>1.041563210096506</v>
       </c>
       <c r="J7">
-        <v>1.036640078291784</v>
+        <v>1.047207115956497</v>
       </c>
       <c r="K7">
-        <v>1.040931361043547</v>
+        <v>1.047595444911837</v>
       </c>
       <c r="L7">
-        <v>1.034791667773487</v>
+        <v>1.048740305109745</v>
       </c>
       <c r="M7">
-        <v>1.03315857827454</v>
+        <v>1.053916765536362</v>
       </c>
       <c r="N7">
-        <v>1.015506899706765</v>
+        <v>1.019552268798136</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010351092642602</v>
+        <v>1.041198611610893</v>
       </c>
       <c r="D8">
-        <v>1.025581544699393</v>
+        <v>1.043959518108343</v>
       </c>
       <c r="E8">
-        <v>1.018298400933457</v>
+        <v>1.044838299175187</v>
       </c>
       <c r="F8">
-        <v>1.015154520112381</v>
+        <v>1.049687388626935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04523846747381</v>
+        <v>1.041100599848025</v>
       </c>
       <c r="J8">
-        <v>1.031663234065679</v>
+        <v>1.046163268437026</v>
       </c>
       <c r="K8">
-        <v>1.036425797984674</v>
+        <v>1.046668977375381</v>
       </c>
       <c r="L8">
-        <v>1.029236084598365</v>
+        <v>1.047545345379783</v>
       </c>
       <c r="M8">
-        <v>1.026133053204501</v>
+        <v>1.052381198280875</v>
       </c>
       <c r="N8">
-        <v>1.013763333074525</v>
+        <v>1.019194043310705</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966856784473543</v>
+        <v>1.03853362923548</v>
       </c>
       <c r="D9">
-        <v>1.015138617641489</v>
+        <v>1.041885389020909</v>
       </c>
       <c r="E9">
-        <v>1.005875118092357</v>
+        <v>1.042292985751576</v>
       </c>
       <c r="F9">
-        <v>0.9999315651224422</v>
+        <v>1.046542719660442</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040242268270238</v>
+        <v>1.040274921699988</v>
       </c>
       <c r="J9">
-        <v>1.022356019271122</v>
+        <v>1.044317116937615</v>
       </c>
       <c r="K9">
-        <v>1.027990764999001</v>
+        <v>1.045028886677315</v>
       </c>
       <c r="L9">
-        <v>1.018873589377423</v>
+        <v>1.045435170737105</v>
       </c>
       <c r="M9">
-        <v>1.01302575273211</v>
+        <v>1.049671284974589</v>
       </c>
       <c r="N9">
-        <v>1.010496586630584</v>
+        <v>1.018558893062901</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9870030835088685</v>
+        <v>1.036755038419292</v>
       </c>
       <c r="D10">
-        <v>1.007760705274019</v>
+        <v>1.040500776561428</v>
       </c>
       <c r="E10">
-        <v>0.9971062542062797</v>
+        <v>1.040596029447592</v>
       </c>
       <c r="F10">
-        <v>0.9891596764235782</v>
+        <v>1.044446113965003</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036652132710872</v>
+        <v>1.039717375823165</v>
       </c>
       <c r="J10">
-        <v>1.015742021952266</v>
+        <v>1.043081736290333</v>
       </c>
       <c r="K10">
-        <v>1.021991237433888</v>
+        <v>1.043930371090301</v>
       </c>
       <c r="L10">
-        <v>1.011527953428452</v>
+        <v>1.044025286921705</v>
       </c>
       <c r="M10">
-        <v>1.003727454066096</v>
+        <v>1.047861804525329</v>
       </c>
       <c r="N10">
-        <v>1.008171912147844</v>
+        <v>1.018132814860289</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.982656483136034</v>
+        <v>1.035984403326496</v>
       </c>
       <c r="D11">
-        <v>1.004454987945888</v>
+        <v>1.039900771323511</v>
       </c>
       <c r="E11">
-        <v>0.9931786803133722</v>
+        <v>1.039861190927196</v>
       </c>
       <c r="F11">
-        <v>0.9843267729353405</v>
+        <v>1.043538182988948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035029241494587</v>
+        <v>1.039474261695813</v>
       </c>
       <c r="J11">
-        <v>1.012769005471382</v>
+        <v>1.042545692711184</v>
       </c>
       <c r="K11">
-        <v>1.019293375924994</v>
+        <v>1.043453474053263</v>
       </c>
       <c r="L11">
-        <v>1.008230393531921</v>
+        <v>1.04341403917949</v>
       </c>
       <c r="M11">
-        <v>0.9995504424387974</v>
+        <v>1.047077564372267</v>
       </c>
       <c r="N11">
-        <v>1.007126412011259</v>
+        <v>1.017947687329048</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9810170991513766</v>
+        <v>1.035698078615486</v>
       </c>
       <c r="D12">
-        <v>1.003209245248173</v>
+        <v>1.039677832613339</v>
       </c>
       <c r="E12">
-        <v>0.9916987473623936</v>
+        <v>1.039588230685654</v>
       </c>
       <c r="F12">
-        <v>0.9825043091924476</v>
+        <v>1.043200920441951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034415512867449</v>
+        <v>1.039383703158199</v>
       </c>
       <c r="J12">
-        <v>1.011647158686228</v>
+        <v>1.042346413182723</v>
       </c>
       <c r="K12">
-        <v>1.01827521838256</v>
+        <v>1.043276146888323</v>
       </c>
       <c r="L12">
-        <v>1.006986733284444</v>
+        <v>1.04318687899601</v>
       </c>
       <c r="M12">
-        <v>0.9979745544775153</v>
+        <v>1.046786150989669</v>
       </c>
       <c r="N12">
-        <v>1.006731836380339</v>
+        <v>1.017878827282352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9813699073664838</v>
+        <v>1.035759499739112</v>
       </c>
       <c r="D13">
-        <v>1.003477289175483</v>
+        <v>1.03972565691115</v>
       </c>
       <c r="E13">
-        <v>0.9920171754880932</v>
+        <v>1.039646781995889</v>
       </c>
       <c r="F13">
-        <v>0.9828965035639291</v>
+        <v>1.043273265208754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034547664742536</v>
+        <v>1.039403139829134</v>
       </c>
       <c r="J13">
-        <v>1.011888611767787</v>
+        <v>1.042389166992726</v>
       </c>
       <c r="K13">
-        <v>1.018494360544058</v>
+        <v>1.043314192620128</v>
       </c>
       <c r="L13">
-        <v>1.007254374672284</v>
+        <v>1.043235610880807</v>
       </c>
       <c r="M13">
-        <v>0.9983137194123329</v>
+        <v>1.046848665251439</v>
       </c>
       <c r="N13">
-        <v>1.006816762741023</v>
+        <v>1.017893602320721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9825214889629145</v>
+        <v>1.035960737211423</v>
       </c>
       <c r="D14">
-        <v>1.004352385816297</v>
+        <v>1.039882344575583</v>
       </c>
       <c r="E14">
-        <v>0.9930567869574534</v>
+        <v>1.039838628131655</v>
       </c>
       <c r="F14">
-        <v>0.9841766967422003</v>
+        <v>1.043510305119661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034978737118453</v>
+        <v>1.039466781307737</v>
       </c>
       <c r="J14">
-        <v>1.012676638007934</v>
+        <v>1.042529223660804</v>
       </c>
       <c r="K14">
-        <v>1.019209548430637</v>
+        <v>1.043438819943353</v>
       </c>
       <c r="L14">
-        <v>1.008127983323874</v>
+        <v>1.043395264414234</v>
       </c>
       <c r="M14">
-        <v>0.9994206864589106</v>
+        <v>1.047053478346724</v>
       </c>
       <c r="N14">
-        <v>1.007093925729635</v>
+        <v>1.017941997285116</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9832276671144885</v>
+        <v>1.036084716048266</v>
       </c>
       <c r="D15">
-        <v>1.004889159223816</v>
+        <v>1.039978875701593</v>
       </c>
       <c r="E15">
-        <v>0.9936944902833017</v>
+        <v>1.039956829690829</v>
       </c>
       <c r="F15">
-        <v>0.984961784859237</v>
+        <v>1.043656350933142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035242868308457</v>
+        <v>1.039505959093712</v>
       </c>
       <c r="J15">
-        <v>1.01315980717961</v>
+        <v>1.042615494748254</v>
       </c>
       <c r="K15">
-        <v>1.019648039969812</v>
+        <v>1.043515582218498</v>
       </c>
       <c r="L15">
-        <v>1.008663712026561</v>
+        <v>1.043493616866233</v>
       </c>
       <c r="M15">
-        <v>1.000099443531635</v>
+        <v>1.047179655566336</v>
       </c>
       <c r="N15">
-        <v>1.00726385723046</v>
+        <v>1.017971802362564</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9872881651851766</v>
+        <v>1.036806172331435</v>
       </c>
       <c r="D16">
-        <v>1.007977658128849</v>
+        <v>1.040540587170291</v>
       </c>
       <c r="E16">
-        <v>0.997364043347153</v>
+        <v>1.040644797161968</v>
       </c>
       <c r="F16">
-        <v>0.9894767037308726</v>
+        <v>1.044506368224369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03675834499437</v>
+        <v>1.039733474771023</v>
       </c>
       <c r="J16">
-        <v>1.015936937333145</v>
+        <v>1.04311728810749</v>
       </c>
       <c r="K16">
-        <v>1.022168093029178</v>
+        <v>1.043961995105838</v>
       </c>
       <c r="L16">
-        <v>1.011744236237297</v>
+        <v>1.044065837302058</v>
       </c>
       <c r="M16">
-        <v>1.004001349911798</v>
+        <v>1.047913836467141</v>
       </c>
       <c r="N16">
-        <v>1.008240446859946</v>
+        <v>1.018145087800661</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9897928163451754</v>
+        <v>1.037258588988956</v>
       </c>
       <c r="D17">
-        <v>1.009884473421186</v>
+        <v>1.04089281029537</v>
       </c>
       <c r="E17">
-        <v>0.9996299210616649</v>
+        <v>1.041076327671172</v>
       </c>
       <c r="F17">
-        <v>0.9922623181476896</v>
+        <v>1.045039535884545</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037690229530453</v>
+        <v>1.039875735522795</v>
       </c>
       <c r="J17">
-        <v>1.017648972500832</v>
+        <v>1.043431750110434</v>
       </c>
       <c r="K17">
-        <v>1.023721383587999</v>
+        <v>1.04424168728772</v>
       </c>
       <c r="L17">
-        <v>1.013644442215188</v>
+        <v>1.044424571824523</v>
       </c>
       <c r="M17">
-        <v>1.006407390926835</v>
+        <v>1.048374173003835</v>
       </c>
       <c r="N17">
-        <v>1.008842359980795</v>
+        <v>1.018253615491346</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9912390064110792</v>
+        <v>1.037522428512127</v>
       </c>
       <c r="D18">
-        <v>1.010986058285879</v>
+        <v>1.041098211881798</v>
       </c>
       <c r="E18">
-        <v>1.000939072477397</v>
+        <v>1.041328027865413</v>
       </c>
       <c r="F18">
-        <v>0.9938709956892512</v>
+        <v>1.04535051541372</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038227235246842</v>
+        <v>1.0399585505055</v>
       </c>
       <c r="J18">
-        <v>1.018637128817612</v>
+        <v>1.043615062935441</v>
       </c>
       <c r="K18">
-        <v>1.024617814799494</v>
+        <v>1.04440470816384</v>
       </c>
       <c r="L18">
-        <v>1.014741615971306</v>
+        <v>1.044633742499358</v>
       </c>
       <c r="M18">
-        <v>1.007796369085915</v>
+        <v>1.04864260994438</v>
       </c>
       <c r="N18">
-        <v>1.009189720341681</v>
+        <v>1.018316856819821</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9917296710909953</v>
+        <v>1.037612382993663</v>
       </c>
       <c r="D19">
-        <v>1.011359901266991</v>
+        <v>1.041168241050545</v>
       </c>
       <c r="E19">
-        <v>1.001383380997614</v>
+        <v>1.041413850457686</v>
       </c>
       <c r="F19">
-        <v>0.9944168350559912</v>
+        <v>1.045456550121423</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038409248521649</v>
+        <v>1.039986760597848</v>
       </c>
       <c r="J19">
-        <v>1.018972325886335</v>
+        <v>1.043677549675298</v>
       </c>
       <c r="K19">
-        <v>1.024921879762097</v>
+        <v>1.044460273948484</v>
       </c>
       <c r="L19">
-        <v>1.015113862663578</v>
+        <v>1.044705051941968</v>
       </c>
       <c r="M19">
-        <v>1.008267577097803</v>
+        <v>1.048734128295094</v>
       </c>
       <c r="N19">
-        <v>1.009307540475627</v>
+        <v>1.018338410136411</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9895256265943362</v>
+        <v>1.037210053888993</v>
       </c>
       <c r="D20">
-        <v>1.009680997617288</v>
+        <v>1.040855024667378</v>
       </c>
       <c r="E20">
-        <v>0.9993881163585159</v>
+        <v>1.041030028983201</v>
       </c>
       <c r="F20">
-        <v>0.9919651295426369</v>
+        <v>1.044982332908004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037590928780599</v>
+        <v>1.039860489187442</v>
       </c>
       <c r="J20">
-        <v>1.017466375595369</v>
+        <v>1.043398022447418</v>
       </c>
       <c r="K20">
-        <v>1.023555727876962</v>
+        <v>1.044211691264373</v>
       </c>
       <c r="L20">
-        <v>1.013441733542181</v>
+        <v>1.044386090577714</v>
       </c>
       <c r="M20">
-        <v>1.0061507493121</v>
+        <v>1.048324790467764</v>
       </c>
       <c r="N20">
-        <v>1.008778168402594</v>
+        <v>1.018241977813132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9821830779918732</v>
+        <v>1.03590147992313</v>
       </c>
       <c r="D21">
-        <v>1.004095194444877</v>
+        <v>1.039836205906358</v>
       </c>
       <c r="E21">
-        <v>0.9927512408121294</v>
+        <v>1.039782134474534</v>
       </c>
       <c r="F21">
-        <v>0.9838004824905894</v>
+        <v>1.043440503259207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0348521038627</v>
+        <v>1.039448047527348</v>
       </c>
       <c r="J21">
-        <v>1.012445077750493</v>
+        <v>1.042487985142018</v>
       </c>
       <c r="K21">
-        <v>1.01899939525467</v>
+        <v>1.043402125457321</v>
       </c>
       <c r="L21">
-        <v>1.007871256918915</v>
+        <v>1.043348253630401</v>
       </c>
       <c r="M21">
-        <v>0.9990953992715919</v>
+        <v>1.046993169101983</v>
       </c>
       <c r="N21">
-        <v>1.007012483415089</v>
+        <v>1.01792774881179</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9774216886049033</v>
+        <v>1.035078283601921</v>
       </c>
       <c r="D22">
-        <v>1.000479225907981</v>
+        <v>1.039195228277595</v>
       </c>
       <c r="E22">
-        <v>0.9884557260985763</v>
+        <v>1.038997483664521</v>
       </c>
       <c r="F22">
-        <v>0.9785079162337712</v>
+        <v>1.042470996229415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033066578870684</v>
+        <v>1.039187252627743</v>
       </c>
       <c r="J22">
-        <v>1.00918587874186</v>
+        <v>1.04191482961727</v>
       </c>
       <c r="K22">
-        <v>1.016041195213727</v>
+        <v>1.042892040418448</v>
       </c>
       <c r="L22">
-        <v>1.004259399479883</v>
+        <v>1.042695054999145</v>
       </c>
       <c r="M22">
-        <v>0.994517506658439</v>
+        <v>1.04615527829909</v>
       </c>
       <c r="N22">
-        <v>1.005866060631136</v>
+        <v>1.017729628207828</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799601444096102</v>
+        <v>1.035514718422516</v>
       </c>
       <c r="D23">
-        <v>1.002406394205084</v>
+        <v>1.039535061485611</v>
       </c>
       <c r="E23">
-        <v>0.990745002700535</v>
+        <v>1.03941344721413</v>
       </c>
       <c r="F23">
-        <v>0.9813294037825483</v>
+        <v>1.042984960667746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034019373434085</v>
+        <v>1.039325645143807</v>
       </c>
       <c r="J23">
-        <v>1.010923732673722</v>
+        <v>1.042218763490667</v>
       </c>
       <c r="K23">
-        <v>1.01761862015575</v>
+        <v>1.043162548815505</v>
       </c>
       <c r="L23">
-        <v>1.006184938978009</v>
+        <v>1.043041391922942</v>
       </c>
       <c r="M23">
-        <v>0.9969584019989095</v>
+        <v>1.046599522463397</v>
       </c>
       <c r="N23">
-        <v>1.006477377755369</v>
+        <v>1.017834708166463</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9896464035356424</v>
+        <v>1.037231984957527</v>
       </c>
       <c r="D24">
-        <v>1.009772972332657</v>
+        <v>1.040872098502438</v>
       </c>
       <c r="E24">
-        <v>0.9994974160081291</v>
+        <v>1.041050949380053</v>
       </c>
       <c r="F24">
-        <v>0.9920994659633647</v>
+        <v>1.04500818049515</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037635818698657</v>
+        <v>1.039867378854484</v>
       </c>
       <c r="J24">
-        <v>1.017548915470319</v>
+        <v>1.043413262858417</v>
       </c>
       <c r="K24">
-        <v>1.023630610082027</v>
+        <v>1.044225245543008</v>
       </c>
       <c r="L24">
-        <v>1.013533363336779</v>
+        <v>1.044403478822179</v>
       </c>
       <c r="M24">
-        <v>1.006266759061737</v>
+        <v>1.048347104524386</v>
       </c>
       <c r="N24">
-        <v>1.008807185297731</v>
+        <v>1.018247236567455</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000313701994864</v>
+        <v>1.039222923782161</v>
       </c>
       <c r="D25">
-        <v>1.017907813054665</v>
+        <v>1.042421925313266</v>
       </c>
       <c r="E25">
-        <v>1.009167875713423</v>
+        <v>1.042951018640506</v>
       </c>
       <c r="F25">
-        <v>1.003970440027228</v>
+        <v>1.04735570723026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041577482710136</v>
+        <v>1.040489627097521</v>
       </c>
       <c r="J25">
-        <v>1.024830513426546</v>
+        <v>1.044795199365464</v>
       </c>
       <c r="K25">
-        <v>1.03023435120398</v>
+        <v>1.045453788162543</v>
       </c>
       <c r="L25">
-        <v>1.02162551994866</v>
+        <v>1.045981242601018</v>
       </c>
       <c r="M25">
-        <v>1.016507431126823</v>
+        <v>1.050372357628194</v>
       </c>
       <c r="N25">
-        <v>1.011365729543457</v>
+        <v>1.018723559660655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040809482733422</v>
+        <v>1.008415247983542</v>
       </c>
       <c r="D2">
-        <v>1.04365670735475</v>
+        <v>1.024100207633146</v>
       </c>
       <c r="E2">
-        <v>1.044466440537053</v>
+        <v>1.016535055546903</v>
       </c>
       <c r="F2">
-        <v>1.049227967760451</v>
+        <v>1.012996228817278</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040980793633511</v>
+        <v>1.044536476842787</v>
       </c>
       <c r="J2">
-        <v>1.045894083157781</v>
+        <v>1.030347141042142</v>
       </c>
       <c r="K2">
-        <v>1.046429957196339</v>
+        <v>1.035233696096174</v>
       </c>
       <c r="L2">
-        <v>1.047237410918254</v>
+        <v>1.027768738603003</v>
       </c>
       <c r="M2">
-        <v>1.05198561125979</v>
+        <v>1.024277426729757</v>
       </c>
       <c r="N2">
-        <v>1.019101556494424</v>
+        <v>1.013301824185161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041960692671536</v>
+        <v>1.01408585994259</v>
       </c>
       <c r="D3">
-        <v>1.044552503137746</v>
+        <v>1.028441171058853</v>
       </c>
       <c r="E3">
-        <v>1.045566763666612</v>
+        <v>1.021703681302404</v>
       </c>
       <c r="F3">
-        <v>1.050587390237693</v>
+        <v>1.019320443644248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041334458434953</v>
+        <v>1.046586766658745</v>
       </c>
       <c r="J3">
-        <v>1.046690057353124</v>
+        <v>1.034199759141415</v>
       </c>
       <c r="K3">
-        <v>1.047136610946707</v>
+        <v>1.038722628751575</v>
       </c>
       <c r="L3">
-        <v>1.048148223623396</v>
+        <v>1.032066191220281</v>
       </c>
       <c r="M3">
-        <v>1.053155824479918</v>
+        <v>1.029711942823381</v>
       </c>
       <c r="N3">
-        <v>1.019374910352988</v>
+        <v>1.014652315172745</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042705259563075</v>
+        <v>1.017664191299316</v>
       </c>
       <c r="D4">
-        <v>1.045131795468497</v>
+        <v>1.031183061056205</v>
       </c>
       <c r="E4">
-        <v>1.046278753314007</v>
+        <v>1.024970483174322</v>
       </c>
       <c r="F4">
-        <v>1.051467046761273</v>
+        <v>1.023314565206179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041561935351102</v>
+        <v>1.047870661057729</v>
       </c>
       <c r="J4">
-        <v>1.047204229612658</v>
+        <v>1.036626589737226</v>
       </c>
       <c r="K4">
-        <v>1.04759288404518</v>
+        <v>1.040919155395515</v>
       </c>
       <c r="L4">
-        <v>1.048736999023224</v>
+        <v>1.034776595426066</v>
       </c>
       <c r="M4">
-        <v>1.053912516035989</v>
+        <v>1.033139517222081</v>
       </c>
       <c r="N4">
-        <v>1.019551279211235</v>
+        <v>1.015502178090841</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043018195191657</v>
+        <v>1.019147724890457</v>
       </c>
       <c r="D5">
-        <v>1.045375247505963</v>
+        <v>1.032320376556786</v>
       </c>
       <c r="E5">
-        <v>1.04657807665914</v>
+        <v>1.026326072809529</v>
       </c>
       <c r="F5">
-        <v>1.051836861748585</v>
+        <v>1.024971318700039</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041657239700608</v>
+        <v>1.048400533869732</v>
       </c>
       <c r="J5">
-        <v>1.047420178904262</v>
+        <v>1.037631657362777</v>
       </c>
       <c r="K5">
-        <v>1.047784467679103</v>
+        <v>1.041828539642609</v>
       </c>
       <c r="L5">
-        <v>1.04898438215293</v>
+        <v>1.035899914711011</v>
       </c>
       <c r="M5">
-        <v>1.054230508322449</v>
+        <v>1.034560135309293</v>
       </c>
       <c r="N5">
-        <v>1.01962530295428</v>
+        <v>1.015853933909147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043070733804669</v>
+        <v>1.019395624274998</v>
       </c>
       <c r="D6">
-        <v>1.045416119359757</v>
+        <v>1.032510453804032</v>
       </c>
       <c r="E6">
-        <v>1.046628334571213</v>
+        <v>1.026552662718446</v>
       </c>
       <c r="F6">
-        <v>1.051898955825761</v>
+        <v>1.025248213510773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04167322256315</v>
+        <v>1.048488932868948</v>
       </c>
       <c r="J6">
-        <v>1.047456425531355</v>
+        <v>1.037799540942912</v>
       </c>
       <c r="K6">
-        <v>1.047816621741263</v>
+        <v>1.041980422348389</v>
       </c>
       <c r="L6">
-        <v>1.049025910806302</v>
+        <v>1.036087598437341</v>
       </c>
       <c r="M6">
-        <v>1.054283893608947</v>
+        <v>1.034797497491054</v>
       </c>
       <c r="N6">
-        <v>1.019637724734773</v>
+        <v>1.0159126772525</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042709441337496</v>
+        <v>1.017684094824996</v>
       </c>
       <c r="D7">
-        <v>1.045135048809645</v>
+        <v>1.031198317484983</v>
       </c>
       <c r="E7">
-        <v>1.046282752874282</v>
+        <v>1.024988665429125</v>
       </c>
       <c r="F7">
-        <v>1.051471988214749</v>
+        <v>1.023336789341968</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041563210096506</v>
+        <v>1.047877779585493</v>
       </c>
       <c r="J7">
-        <v>1.047207115956497</v>
+        <v>1.036640078291784</v>
       </c>
       <c r="K7">
-        <v>1.047595444911837</v>
+        <v>1.040931361043547</v>
       </c>
       <c r="L7">
-        <v>1.048740305109745</v>
+        <v>1.034791667773487</v>
       </c>
       <c r="M7">
-        <v>1.053916765536362</v>
+        <v>1.033158578274539</v>
       </c>
       <c r="N7">
-        <v>1.019552268798136</v>
+        <v>1.015506899706766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041198611610893</v>
+        <v>1.010351092642602</v>
       </c>
       <c r="D8">
-        <v>1.043959518108343</v>
+        <v>1.025581544699394</v>
       </c>
       <c r="E8">
-        <v>1.044838299175187</v>
+        <v>1.018298400933458</v>
       </c>
       <c r="F8">
-        <v>1.049687388626935</v>
+        <v>1.015154520112381</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041100599848025</v>
+        <v>1.04523846747381</v>
       </c>
       <c r="J8">
-        <v>1.046163268437026</v>
+        <v>1.03166323406568</v>
       </c>
       <c r="K8">
-        <v>1.046668977375381</v>
+        <v>1.036425797984674</v>
       </c>
       <c r="L8">
-        <v>1.047545345379783</v>
+        <v>1.029236084598365</v>
       </c>
       <c r="M8">
-        <v>1.052381198280875</v>
+        <v>1.026133053204502</v>
       </c>
       <c r="N8">
-        <v>1.019194043310705</v>
+        <v>1.013763333074525</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03853362923548</v>
+        <v>0.9966856784473548</v>
       </c>
       <c r="D9">
-        <v>1.041885389020909</v>
+        <v>1.015138617641489</v>
       </c>
       <c r="E9">
-        <v>1.042292985751576</v>
+        <v>1.005875118092357</v>
       </c>
       <c r="F9">
-        <v>1.046542719660442</v>
+        <v>0.9999315651224426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040274921699988</v>
+        <v>1.040242268270238</v>
       </c>
       <c r="J9">
-        <v>1.044317116937615</v>
+        <v>1.022356019271122</v>
       </c>
       <c r="K9">
-        <v>1.045028886677315</v>
+        <v>1.027990764999001</v>
       </c>
       <c r="L9">
-        <v>1.045435170737105</v>
+        <v>1.018873589377423</v>
       </c>
       <c r="M9">
-        <v>1.049671284974589</v>
+        <v>1.013025752732111</v>
       </c>
       <c r="N9">
-        <v>1.018558893062901</v>
+        <v>1.010496586630585</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036755038419292</v>
+        <v>0.9870030835088694</v>
       </c>
       <c r="D10">
-        <v>1.040500776561428</v>
+        <v>1.00776070527402</v>
       </c>
       <c r="E10">
-        <v>1.040596029447592</v>
+        <v>0.9971062542062806</v>
       </c>
       <c r="F10">
-        <v>1.044446113965003</v>
+        <v>0.989159676423579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039717375823165</v>
+        <v>1.036652132710873</v>
       </c>
       <c r="J10">
-        <v>1.043081736290333</v>
+        <v>1.015742021952267</v>
       </c>
       <c r="K10">
-        <v>1.043930371090301</v>
+        <v>1.021991237433889</v>
       </c>
       <c r="L10">
-        <v>1.044025286921705</v>
+        <v>1.011527953428453</v>
       </c>
       <c r="M10">
-        <v>1.047861804525329</v>
+        <v>1.003727454066097</v>
       </c>
       <c r="N10">
-        <v>1.018132814860289</v>
+        <v>1.008171912147844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035984403326496</v>
+        <v>0.9826564831360333</v>
       </c>
       <c r="D11">
-        <v>1.039900771323511</v>
+        <v>1.004454987945887</v>
       </c>
       <c r="E11">
-        <v>1.039861190927196</v>
+        <v>0.9931786803133714</v>
       </c>
       <c r="F11">
-        <v>1.043538182988948</v>
+        <v>0.9843267729353401</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039474261695813</v>
+        <v>1.035029241494586</v>
       </c>
       <c r="J11">
-        <v>1.042545692711184</v>
+        <v>1.012769005471381</v>
       </c>
       <c r="K11">
-        <v>1.043453474053263</v>
+        <v>1.019293375924993</v>
       </c>
       <c r="L11">
-        <v>1.04341403917949</v>
+        <v>1.00823039353192</v>
       </c>
       <c r="M11">
-        <v>1.047077564372267</v>
+        <v>0.9995504424387969</v>
       </c>
       <c r="N11">
-        <v>1.017947687329048</v>
+        <v>1.007126412011258</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035698078615486</v>
+        <v>0.9810170991513761</v>
       </c>
       <c r="D12">
-        <v>1.039677832613339</v>
+        <v>1.003209245248173</v>
       </c>
       <c r="E12">
-        <v>1.039588230685654</v>
+        <v>0.9916987473623932</v>
       </c>
       <c r="F12">
-        <v>1.043200920441951</v>
+        <v>0.9825043091924466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039383703158199</v>
+        <v>1.034415512867449</v>
       </c>
       <c r="J12">
-        <v>1.042346413182723</v>
+        <v>1.011647158686227</v>
       </c>
       <c r="K12">
-        <v>1.043276146888323</v>
+        <v>1.01827521838256</v>
       </c>
       <c r="L12">
-        <v>1.04318687899601</v>
+        <v>1.006986733284444</v>
       </c>
       <c r="M12">
-        <v>1.046786150989669</v>
+        <v>0.9979745544775143</v>
       </c>
       <c r="N12">
-        <v>1.017878827282352</v>
+        <v>1.006731836380339</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035759499739112</v>
+        <v>0.9813699073664841</v>
       </c>
       <c r="D13">
-        <v>1.03972565691115</v>
+        <v>1.003477289175483</v>
       </c>
       <c r="E13">
-        <v>1.039646781995889</v>
+        <v>0.9920171754880936</v>
       </c>
       <c r="F13">
-        <v>1.043273265208754</v>
+        <v>0.9828965035639291</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039403139829134</v>
+        <v>1.034547664742536</v>
       </c>
       <c r="J13">
-        <v>1.042389166992726</v>
+        <v>1.011888611767787</v>
       </c>
       <c r="K13">
-        <v>1.043314192620128</v>
+        <v>1.018494360544058</v>
       </c>
       <c r="L13">
-        <v>1.043235610880807</v>
+        <v>1.007254374672284</v>
       </c>
       <c r="M13">
-        <v>1.046848665251439</v>
+        <v>0.998313719412333</v>
       </c>
       <c r="N13">
-        <v>1.017893602320721</v>
+        <v>1.006816762741023</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035960737211423</v>
+        <v>0.9825214889629148</v>
       </c>
       <c r="D14">
-        <v>1.039882344575583</v>
+        <v>1.004352385816298</v>
       </c>
       <c r="E14">
-        <v>1.039838628131655</v>
+        <v>0.9930567869574537</v>
       </c>
       <c r="F14">
-        <v>1.043510305119661</v>
+        <v>0.9841766967422004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039466781307737</v>
+        <v>1.034978737118453</v>
       </c>
       <c r="J14">
-        <v>1.042529223660804</v>
+        <v>1.012676638007935</v>
       </c>
       <c r="K14">
-        <v>1.043438819943353</v>
+        <v>1.019209548430637</v>
       </c>
       <c r="L14">
-        <v>1.043395264414234</v>
+        <v>1.008127983323874</v>
       </c>
       <c r="M14">
-        <v>1.047053478346724</v>
+        <v>0.9994206864589107</v>
       </c>
       <c r="N14">
-        <v>1.017941997285116</v>
+        <v>1.007093925729635</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036084716048266</v>
+        <v>0.9832276671144892</v>
       </c>
       <c r="D15">
-        <v>1.039978875701593</v>
+        <v>1.004889159223817</v>
       </c>
       <c r="E15">
-        <v>1.039956829690829</v>
+        <v>0.9936944902833025</v>
       </c>
       <c r="F15">
-        <v>1.043656350933142</v>
+        <v>0.9849617848592374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039505959093712</v>
+        <v>1.035242868308457</v>
       </c>
       <c r="J15">
-        <v>1.042615494748254</v>
+        <v>1.013159807179611</v>
       </c>
       <c r="K15">
-        <v>1.043515582218498</v>
+        <v>1.019648039969813</v>
       </c>
       <c r="L15">
-        <v>1.043493616866233</v>
+        <v>1.008663712026561</v>
       </c>
       <c r="M15">
-        <v>1.047179655566336</v>
+        <v>1.000099443531635</v>
       </c>
       <c r="N15">
-        <v>1.017971802362564</v>
+        <v>1.00726385723046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036806172331435</v>
+        <v>0.9872881651851769</v>
       </c>
       <c r="D16">
-        <v>1.040540587170291</v>
+        <v>1.00797765812885</v>
       </c>
       <c r="E16">
-        <v>1.040644797161968</v>
+        <v>0.9973640433471536</v>
       </c>
       <c r="F16">
-        <v>1.044506368224369</v>
+        <v>0.9894767037308732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039733474771023</v>
+        <v>1.03675834499437</v>
       </c>
       <c r="J16">
-        <v>1.04311728810749</v>
+        <v>1.015936937333146</v>
       </c>
       <c r="K16">
-        <v>1.043961995105838</v>
+        <v>1.022168093029179</v>
       </c>
       <c r="L16">
-        <v>1.044065837302058</v>
+        <v>1.011744236237297</v>
       </c>
       <c r="M16">
-        <v>1.047913836467141</v>
+        <v>1.004001349911799</v>
       </c>
       <c r="N16">
-        <v>1.018145087800661</v>
+        <v>1.008240446859946</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037258588988956</v>
+        <v>0.9897928163451757</v>
       </c>
       <c r="D17">
-        <v>1.04089281029537</v>
+        <v>1.009884473421186</v>
       </c>
       <c r="E17">
-        <v>1.041076327671172</v>
+        <v>0.9996299210616655</v>
       </c>
       <c r="F17">
-        <v>1.045039535884545</v>
+        <v>0.9922623181476903</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039875735522795</v>
+        <v>1.037690229530454</v>
       </c>
       <c r="J17">
-        <v>1.043431750110434</v>
+        <v>1.017648972500833</v>
       </c>
       <c r="K17">
-        <v>1.04424168728772</v>
+        <v>1.023721383587999</v>
       </c>
       <c r="L17">
-        <v>1.044424571824523</v>
+        <v>1.013644442215188</v>
       </c>
       <c r="M17">
-        <v>1.048374173003835</v>
+        <v>1.006407390926835</v>
       </c>
       <c r="N17">
-        <v>1.018253615491346</v>
+        <v>1.008842359980796</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037522428512127</v>
+        <v>0.9912390064110791</v>
       </c>
       <c r="D18">
-        <v>1.041098211881798</v>
+        <v>1.010986058285879</v>
       </c>
       <c r="E18">
-        <v>1.041328027865413</v>
+        <v>1.000939072477396</v>
       </c>
       <c r="F18">
-        <v>1.04535051541372</v>
+        <v>0.9938709956892512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0399585505055</v>
+        <v>1.038227235246842</v>
       </c>
       <c r="J18">
-        <v>1.043615062935441</v>
+        <v>1.018637128817611</v>
       </c>
       <c r="K18">
-        <v>1.04440470816384</v>
+        <v>1.024617814799494</v>
       </c>
       <c r="L18">
-        <v>1.044633742499358</v>
+        <v>1.014741615971305</v>
       </c>
       <c r="M18">
-        <v>1.04864260994438</v>
+        <v>1.007796369085915</v>
       </c>
       <c r="N18">
-        <v>1.018316856819821</v>
+        <v>1.00918972034168</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037612382993663</v>
+        <v>0.9917296710909953</v>
       </c>
       <c r="D19">
-        <v>1.041168241050545</v>
+        <v>1.011359901266991</v>
       </c>
       <c r="E19">
-        <v>1.041413850457686</v>
+        <v>1.001383380997614</v>
       </c>
       <c r="F19">
-        <v>1.045456550121423</v>
+        <v>0.994416835055991</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039986760597848</v>
+        <v>1.038409248521649</v>
       </c>
       <c r="J19">
-        <v>1.043677549675298</v>
+        <v>1.018972325886335</v>
       </c>
       <c r="K19">
-        <v>1.044460273948484</v>
+        <v>1.024921879762098</v>
       </c>
       <c r="L19">
-        <v>1.044705051941968</v>
+        <v>1.015113862663579</v>
       </c>
       <c r="M19">
-        <v>1.048734128295094</v>
+        <v>1.008267577097803</v>
       </c>
       <c r="N19">
-        <v>1.018338410136411</v>
+        <v>1.009307540475627</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037210053888993</v>
+        <v>0.989525626594337</v>
       </c>
       <c r="D20">
-        <v>1.040855024667378</v>
+        <v>1.009680997617288</v>
       </c>
       <c r="E20">
-        <v>1.041030028983201</v>
+        <v>0.9993881163585162</v>
       </c>
       <c r="F20">
-        <v>1.044982332908004</v>
+        <v>0.9919651295426375</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039860489187442</v>
+        <v>1.0375909287806</v>
       </c>
       <c r="J20">
-        <v>1.043398022447418</v>
+        <v>1.01746637559537</v>
       </c>
       <c r="K20">
-        <v>1.044211691264373</v>
+        <v>1.023555727876962</v>
       </c>
       <c r="L20">
-        <v>1.044386090577714</v>
+        <v>1.013441733542181</v>
       </c>
       <c r="M20">
-        <v>1.048324790467764</v>
+        <v>1.0061507493121</v>
       </c>
       <c r="N20">
-        <v>1.018241977813132</v>
+        <v>1.008778168402594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03590147992313</v>
+        <v>0.9821830779918743</v>
       </c>
       <c r="D21">
-        <v>1.039836205906358</v>
+        <v>1.004095194444877</v>
       </c>
       <c r="E21">
-        <v>1.039782134474534</v>
+        <v>0.9927512408121303</v>
       </c>
       <c r="F21">
-        <v>1.043440503259207</v>
+        <v>0.9838004824905904</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039448047527348</v>
+        <v>1.034852103862701</v>
       </c>
       <c r="J21">
-        <v>1.042487985142018</v>
+        <v>1.012445077750494</v>
       </c>
       <c r="K21">
-        <v>1.043402125457321</v>
+        <v>1.018999395254671</v>
       </c>
       <c r="L21">
-        <v>1.043348253630401</v>
+        <v>1.007871256918916</v>
       </c>
       <c r="M21">
-        <v>1.046993169101983</v>
+        <v>0.9990953992715931</v>
       </c>
       <c r="N21">
-        <v>1.01792774881179</v>
+        <v>1.007012483415089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035078283601921</v>
+        <v>0.9774216886049036</v>
       </c>
       <c r="D22">
-        <v>1.039195228277595</v>
+        <v>1.000479225907981</v>
       </c>
       <c r="E22">
-        <v>1.038997483664521</v>
+        <v>0.9884557260985769</v>
       </c>
       <c r="F22">
-        <v>1.042470996229415</v>
+        <v>0.9785079162337721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039187252627743</v>
+        <v>1.033066578870684</v>
       </c>
       <c r="J22">
-        <v>1.04191482961727</v>
+        <v>1.009185878741861</v>
       </c>
       <c r="K22">
-        <v>1.042892040418448</v>
+        <v>1.016041195213728</v>
       </c>
       <c r="L22">
-        <v>1.042695054999145</v>
+        <v>1.004259399479883</v>
       </c>
       <c r="M22">
-        <v>1.04615527829909</v>
+        <v>0.9945175066584399</v>
       </c>
       <c r="N22">
-        <v>1.017729628207828</v>
+        <v>1.005866060631136</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035514718422516</v>
+        <v>0.9799601444096104</v>
       </c>
       <c r="D23">
-        <v>1.039535061485611</v>
+        <v>1.002406394205084</v>
       </c>
       <c r="E23">
-        <v>1.03941344721413</v>
+        <v>0.9907450027005354</v>
       </c>
       <c r="F23">
-        <v>1.042984960667746</v>
+        <v>0.9813294037825485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039325645143807</v>
+        <v>1.034019373434085</v>
       </c>
       <c r="J23">
-        <v>1.042218763490667</v>
+        <v>1.010923732673722</v>
       </c>
       <c r="K23">
-        <v>1.043162548815505</v>
+        <v>1.01761862015575</v>
       </c>
       <c r="L23">
-        <v>1.043041391922942</v>
+        <v>1.00618493897801</v>
       </c>
       <c r="M23">
-        <v>1.046599522463397</v>
+        <v>0.9969584019989096</v>
       </c>
       <c r="N23">
-        <v>1.017834708166463</v>
+        <v>1.006477377755369</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037231984957527</v>
+        <v>0.9896464035356424</v>
       </c>
       <c r="D24">
-        <v>1.040872098502438</v>
+        <v>1.009772972332657</v>
       </c>
       <c r="E24">
-        <v>1.041050949380053</v>
+        <v>0.9994974160081292</v>
       </c>
       <c r="F24">
-        <v>1.04500818049515</v>
+        <v>0.9920994659633648</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039867378854484</v>
+        <v>1.037635818698657</v>
       </c>
       <c r="J24">
-        <v>1.043413262858417</v>
+        <v>1.017548915470319</v>
       </c>
       <c r="K24">
-        <v>1.044225245543008</v>
+        <v>1.023630610082027</v>
       </c>
       <c r="L24">
-        <v>1.044403478822179</v>
+        <v>1.01353336333678</v>
       </c>
       <c r="M24">
-        <v>1.048347104524386</v>
+        <v>1.006266759061737</v>
       </c>
       <c r="N24">
-        <v>1.018247236567455</v>
+        <v>1.008807185297731</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039222923782161</v>
+        <v>1.000313701994864</v>
       </c>
       <c r="D25">
-        <v>1.042421925313266</v>
+        <v>1.017907813054664</v>
       </c>
       <c r="E25">
-        <v>1.042951018640506</v>
+        <v>1.009167875713423</v>
       </c>
       <c r="F25">
-        <v>1.04735570723026</v>
+        <v>1.003970440027227</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040489627097521</v>
+        <v>1.041577482710136</v>
       </c>
       <c r="J25">
-        <v>1.044795199365464</v>
+        <v>1.024830513426546</v>
       </c>
       <c r="K25">
-        <v>1.045453788162543</v>
+        <v>1.03023435120398</v>
       </c>
       <c r="L25">
-        <v>1.045981242601018</v>
+        <v>1.02162551994866</v>
       </c>
       <c r="M25">
-        <v>1.050372357628194</v>
+        <v>1.016507431126823</v>
       </c>
       <c r="N25">
-        <v>1.018723559660655</v>
+        <v>1.011365729543457</v>
       </c>
     </row>
   </sheetData>
